--- a/barbara.xlsx
+++ b/barbara.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manue\Desktop\workspace\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manue\Desktop\workspace\Lab2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{92943068-CD30-4815-881A-3BBC543021EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D55EC345-6A2A-45C0-9F3F-8A5B0BEDC575}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{5270656B-D421-4E53-97F5-4C5CBF0A4098}"/>
   </bookViews>
@@ -961,7 +961,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>19</v>
       </c>
@@ -1537,7 +1537,7 @@
         <v>55000</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>60</v>
       </c>
@@ -1569,7 +1569,7 @@
         <v>60000</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>64</v>
       </c>
@@ -1633,7 +1633,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>49</v>
       </c>
@@ -1665,7 +1665,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>69</v>
       </c>
@@ -1953,7 +1953,7 @@
         <v>173000</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>49</v>
       </c>
@@ -1985,7 +1985,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>19</v>
       </c>
@@ -2209,7 +2209,7 @@
         <v>52000</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>25</v>
       </c>
@@ -2401,7 +2401,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="48" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>19</v>
       </c>
@@ -2465,7 +2465,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="50" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>28</v>
       </c>
@@ -2497,7 +2497,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="51" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>71</v>
       </c>
@@ -2529,7 +2529,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="52" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>60</v>
       </c>
@@ -2561,7 +2561,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="53" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>64</v>
       </c>
@@ -2625,7 +2625,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="55" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>57</v>
       </c>
@@ -2849,7 +2849,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="62" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>64</v>
       </c>
@@ -2913,7 +2913,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="64" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>79</v>
       </c>
@@ -2945,7 +2945,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="65" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>85</v>
       </c>
@@ -3073,7 +3073,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="69" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>64</v>
       </c>
@@ -3105,7 +3105,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="70" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>28</v>
       </c>
@@ -3201,7 +3201,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="73" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>111</v>
       </c>
@@ -3233,7 +3233,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="74" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>28</v>
       </c>
@@ -3265,7 +3265,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="75" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>57</v>
       </c>
@@ -3361,7 +3361,7 @@
         <v>990000</v>
       </c>
     </row>
-    <row r="78" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>19</v>
       </c>
@@ -3457,7 +3457,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="81" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>52</v>
       </c>
@@ -3489,7 +3489,7 @@
         <v>250000</v>
       </c>
     </row>
-    <row r="82" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>79</v>
       </c>
@@ -3649,7 +3649,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="87" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>69</v>
       </c>
@@ -3681,7 +3681,7 @@
         <v>105000</v>
       </c>
     </row>
-    <row r="88" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>57</v>
       </c>
@@ -3745,7 +3745,7 @@
         <v>5862848200000000</v>
       </c>
     </row>
-    <row r="90" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>64</v>
       </c>
@@ -3777,7 +3777,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="91" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>19</v>
       </c>
@@ -3809,7 +3809,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="92" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>28</v>
       </c>
@@ -3841,7 +3841,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="93" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>49</v>
       </c>
@@ -3905,7 +3905,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="95" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>79</v>
       </c>
@@ -4033,7 +4033,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="99" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>79</v>
       </c>
@@ -4129,7 +4129,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="102" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>64</v>
       </c>
@@ -4225,7 +4225,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="105" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>85</v>
       </c>
@@ -4289,7 +4289,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="107" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>57</v>
       </c>
@@ -4321,7 +4321,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="108" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>49</v>
       </c>
@@ -4353,7 +4353,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="109" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>64</v>
       </c>
@@ -4385,7 +4385,7 @@
         <v>57820</v>
       </c>
     </row>
-    <row r="110" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>111</v>
       </c>
@@ -4449,7 +4449,7 @@
         <v>298000</v>
       </c>
     </row>
-    <row r="112" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>73</v>
       </c>
@@ -4481,7 +4481,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="113" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>98</v>
       </c>
@@ -4545,7 +4545,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="115" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>64</v>
       </c>
@@ -4641,7 +4641,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="118" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>39</v>
       </c>
@@ -4673,7 +4673,7 @@
         <v>31000</v>
       </c>
     </row>
-    <row r="119" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>44</v>
       </c>
@@ -4769,7 +4769,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="122" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>25</v>
       </c>
@@ -4801,7 +4801,7 @@
         <v>200000</v>
       </c>
     </row>
-    <row r="123" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>57</v>
       </c>
@@ -4833,7 +4833,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="124" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>19</v>
       </c>
@@ -4865,7 +4865,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="125" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>111</v>
       </c>
@@ -4929,7 +4929,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="127" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>124</v>
       </c>
@@ -5025,7 +5025,7 @@
         <v>1963000</v>
       </c>
     </row>
-    <row r="130" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>19</v>
       </c>
@@ -5089,7 +5089,7 @@
         <v>108125</v>
       </c>
     </row>
-    <row r="132" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
         <v>87</v>
       </c>
@@ -5153,7 +5153,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="134" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
         <v>69</v>
       </c>
@@ -5313,7 +5313,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="139" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
         <v>111</v>
       </c>
@@ -5345,7 +5345,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="140" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
         <v>64</v>
       </c>
@@ -5377,7 +5377,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="141" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
         <v>25</v>
       </c>
@@ -5409,7 +5409,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="142" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
         <v>111</v>
       </c>
@@ -5441,7 +5441,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="143" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
         <v>150</v>
       </c>
@@ -5761,7 +5761,7 @@
         <v>36000</v>
       </c>
     </row>
-    <row r="153" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
         <v>58</v>
       </c>
@@ -5953,7 +5953,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="159" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
         <v>85</v>
       </c>
@@ -5985,7 +5985,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="160" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
         <v>25</v>
       </c>
